--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value348.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value348.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.694336818275499</v>
+        <v>0.7645142078399658</v>
       </c>
       <c r="B1">
-        <v>4.026751286112411</v>
+        <v>1.503905415534973</v>
       </c>
       <c r="C1">
-        <v>1.925414749030934</v>
+        <v>5.174703598022461</v>
       </c>
       <c r="D1">
-        <v>0.8897487742505822</v>
+        <v>2.9571852684021</v>
       </c>
       <c r="E1">
-        <v>0.646665339349873</v>
+        <v>1.477841258049011</v>
       </c>
     </row>
   </sheetData>
